--- a/1. tools/generate-json/inputdemo.xlsx
+++ b/1. tools/generate-json/inputdemo.xlsx
@@ -5,34 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design\Portfolio-Ongoing\tools\generate-json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design\Portfolio-Ongoing\1. tools\generate-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896CEC5-CEE2-4A8E-8148-39D3D53EA60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC83A5-879C-45B9-B958-54FA094FCFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="2360" windowWidth="18480" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11510" yWindow="0" windowWidth="26980" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>标题</t>
   </si>
   <si>
-    <t>图片路径</t>
-  </si>
-  <si>
     <t>数据源路径</t>
   </si>
   <si>
@@ -61,10 +69,6 @@
   </si>
   <si>
     <t>/end</t>
-  </si>
-  <si>
-    <t>assets/placeholder.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/end</t>
@@ -111,6 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -182,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -193,9 +200,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -493,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -521,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -549,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -605,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -633,9 +644,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>16</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -656,45 +666,44 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="B7" s="5">
+        <v>44871</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>44871</v>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -717,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -745,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -769,11 +778,11 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -796,34 +805,6 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. tools/generate-json/inputdemo.xlsx
+++ b/1. tools/generate-json/inputdemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design\Portfolio-Ongoing\1. tools\generate-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC83A5-879C-45B9-B958-54FA094FCFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E0F97-2F7E-43AF-9F45-759090A170B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11510" yWindow="0" windowWidth="26980" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18960" yWindow="2360" windowWidth="18480" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>标题</t>
   </si>
@@ -108,6 +108,22 @@
   </si>
   <si>
     <t>上海保利大剧院 Shanghai Poly Grand Theatre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>articles/photograph/fadingweddingdressing/fadingweddingdressing.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>articles/photograph/fadingweddingdressing/fadingweddingdressing.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fading Wedding Dressing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -200,13 +216,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -506,7 +522,9 @@
       <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -534,7 +552,9 @@
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -562,7 +582,9 @@
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -590,7 +612,9 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>

--- a/1. tools/generate-json/inputdemo.xlsx
+++ b/1. tools/generate-json/inputdemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design\Portfolio-Ongoing\1. tools\generate-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E0F97-2F7E-43AF-9F45-759090A170B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47DD83-2E96-4C5F-A8C5-E95D5B99BDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="2360" windowWidth="18480" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="670" yWindow="3230" windowWidth="18480" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>标题</t>
   </si>
@@ -111,19 +111,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>articles/photograph/fadingweddingdressing/fadingweddingdressing.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>articles/photograph/fadingweddingdressing/fadingweddingdressing.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fading Wedding Dressing</t>
+    <t>黄浦区，上海，中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huangpu District, Shanghai, China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自拍 Selfie</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -523,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -553,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -583,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -612,9 +608,7 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -642,7 +636,6 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -670,6 +663,7 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -697,7 +691,9 @@
       <c r="B7" s="5">
         <v>44871</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>44349</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -752,7 +748,9 @@
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -780,7 +778,9 @@
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
